--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotab\Documents\GitHub\Seismic-DnA-GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390F42D-BE5C-4BD5-9D4E-B72276AB4E26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E63E45-60DD-47F4-9455-B8F62D5D4914}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6524" uniqueCount="454">
   <si>
     <t>FIX FOR PARAMETERIZATION OF MAX FLOOR AREA (ITS NOT ALWAYS 12X12)</t>
   </si>
@@ -1335,9 +1335,6 @@
     <t>Section Prop</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>BALSA</t>
   </si>
   <si>
@@ -1347,22 +1344,10 @@
     <t>Mat type</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Poisson Ratio</t>
   </si>
   <si>
-    <t>Thermal Coef</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t>STEEL</t>
-  </si>
-  <si>
-    <t>Section properties</t>
   </si>
   <si>
     <t>Members</t>
@@ -1371,10 +1356,37 @@
     <t>Material Name</t>
   </si>
   <si>
-    <t>Width</t>
+    <t>Steel Rod</t>
   </si>
   <si>
-    <t>Height</t>
+    <t>E (kPa)</t>
+  </si>
+  <si>
+    <t>MEMBER</t>
+  </si>
+  <si>
+    <t>Width (m)</t>
+  </si>
+  <si>
+    <t>Height (m)</t>
+  </si>
+  <si>
+    <t>ROD</t>
+  </si>
+  <si>
+    <t>Diameter (m)</t>
+  </si>
+  <si>
+    <t>Note: need to check these properties</t>
+  </si>
+  <si>
+    <t>Thermal coef</t>
+  </si>
+  <si>
+    <t>Unit weight (kN/m3)</t>
+  </si>
+  <si>
+    <t>Section Properties</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1527,6 +1539,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1841,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1000"/>
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL4" sqref="AL4"/>
+      <selection pane="bottomLeft" activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1863,27 +1877,25 @@
     <col min="20" max="20" width="13.7265625" customWidth="1"/>
     <col min="21" max="21" width="11" style="10" customWidth="1"/>
     <col min="22" max="22" width="8.7265625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="16.08984375" style="10" customWidth="1"/>
-    <col min="24" max="43" width="8.7265625" style="10" customWidth="1"/>
-    <col min="44" max="44" width="15.26953125" customWidth="1"/>
-    <col min="45" max="49" width="8.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.7265625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="8.7265625" style="10" customWidth="1"/>
+    <col min="32" max="32" width="13.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="8.7265625" style="10" customWidth="1"/>
+    <col min="39" max="39" width="15.26953125" customWidth="1"/>
+    <col min="40" max="44" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="14.25" customHeight="1">
+    <row r="1" spans="1:39" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="F1" s="2"/>
       <c r="J1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="W1" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="14.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:39" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1912,17 +1924,17 @@
         <v>3</v>
       </c>
       <c r="R2" s="3"/>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="AD2" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK2" s="18" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" ht="14.25" customHeight="1">
+      <c r="X2" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,60 +1992,33 @@
         <v>435</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="X3" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG3" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH3" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI3" s="17" t="s">
-        <v>443</v>
-      </c>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
       <c r="AJ3" s="17"/>
-      <c r="AK3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="AM3" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="AN3" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-    </row>
-    <row r="4" spans="1:44" ht="14.25" customHeight="1">
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+    </row>
+    <row r="4" spans="1:39" ht="14.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2086,28 +2071,41 @@
         <v>19</v>
       </c>
       <c r="T4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="W4" s="10">
+        <v>445</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="X4" s="10">
         <v>3</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>200000</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="AR4" s="9" t="s">
+      <c r="Z4" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="14.25" customHeight="1">
+    <row r="5" spans="1:39" ht="14.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2160,16 +2158,40 @@
         <v>19</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR5" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="14.25" customHeight="1">
+    <row r="6" spans="1:39" ht="14.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2222,16 +2244,41 @@
         <v>19</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR6" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="X6" s="10">
+        <v>1250128</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>200000000</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM6" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="14.25" customHeight="1">
+    <row r="7" spans="1:39" ht="14.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2284,16 +2331,34 @@
         <v>19</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR7" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="14.25" customHeight="1">
+    <row r="8" spans="1:39" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2346,16 +2411,31 @@
         <v>19</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR8" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="X8" s="19">
+        <v>6500000</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>6500000</v>
+      </c>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AM8" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="14.25" customHeight="1">
+    <row r="9" spans="1:39" ht="14.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2408,16 +2488,28 @@
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR9" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="X9" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="14.25" customHeight="1">
+    <row r="10" spans="1:39" ht="14.25" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2470,16 +2562,16 @@
         <v>19</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR10" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM10" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="14.25" customHeight="1">
+    <row r="11" spans="1:39" ht="14.25" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2532,16 +2624,16 @@
         <v>19</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR11" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM11" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="14.25" customHeight="1">
+    <row r="12" spans="1:39" ht="14.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2594,16 +2686,16 @@
         <v>19</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR12" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM12" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="14.25" customHeight="1">
+    <row r="13" spans="1:39" ht="14.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2657,16 +2749,16 @@
         <v>19</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR13" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM13" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="14.25" customHeight="1">
+    <row r="14" spans="1:39" ht="14.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2719,16 +2811,16 @@
         <v>19</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR14" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM14" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="14.25" customHeight="1">
+    <row r="15" spans="1:39" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2781,13 +2873,13 @@
         <v>19</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2840,13 +2932,13 @@
         <v>19</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="14.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2899,13 +2991,13 @@
         <v>19</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="14.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2958,13 +3050,13 @@
         <v>19</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="14.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3017,13 +3109,13 @@
         <v>19</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="14.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3076,13 +3168,13 @@
         <v>19</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="14.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3135,13 +3227,13 @@
         <v>19</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="14.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3194,13 +3286,13 @@
         <v>19</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="14.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3253,13 +3345,13 @@
         <v>19</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="14.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3312,16 +3404,16 @@
         <v>19</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR24" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="14.25" customHeight="1">
+    <row r="25" spans="1:40" ht="14.25" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3374,13 +3466,13 @@
         <v>19</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" ht="14.25" customHeight="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="14.25" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3433,20 +3525,20 @@
         <v>19</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM26" t="s">
         <v>149</v>
       </c>
-      <c r="AS26">
+      <c r="AN26">
         <f>COUNTIF(S:S,"COL")</f>
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="14.25" customHeight="1">
+    <row r="27" spans="1:40" ht="14.25" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3484,20 +3576,20 @@
         <v>19</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR27" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM27" t="s">
         <v>152</v>
       </c>
-      <c r="AS27">
+      <c r="AN27">
         <f>COUNTIF(S:S,"BEAM")</f>
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="14.25" customHeight="1">
+    <row r="28" spans="1:40" ht="14.25" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3536,20 +3628,20 @@
         <v>19</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR28" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM28" t="s">
         <v>154</v>
       </c>
-      <c r="AS28">
+      <c r="AN28">
         <f>COUNTIF(S:S,"FLOOR")</f>
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="14.25" customHeight="1">
+    <row r="29" spans="1:40" ht="14.25" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3588,20 +3680,20 @@
         <v>19</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR29" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM29" t="s">
         <v>157</v>
       </c>
-      <c r="AS29">
+      <c r="AN29">
         <f>COUNTIF(S:S,"TOP FLOOR")</f>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="14.25" customHeight="1">
+    <row r="30" spans="1:40" ht="14.25" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3640,20 +3732,20 @@
         <v>19</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR30" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM30" t="s">
         <v>159</v>
       </c>
-      <c r="AS30">
+      <c r="AN30">
         <f>COUNTIF(S:S,"BRACES")</f>
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="14.25" customHeight="1">
+    <row r="31" spans="1:40" ht="14.25" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3692,19 +3784,19 @@
         <v>19</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR31" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM31" t="s">
         <v>162</v>
       </c>
-      <c r="AS31">
+      <c r="AN31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="14.25" customHeight="1">
+    <row r="32" spans="1:40" ht="14.25" customHeight="1">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3743,16 +3835,16 @@
         <v>19</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR32" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM32" t="s">
         <v>165</v>
       </c>
-      <c r="AS32">
-        <f>SUM(AS26:AS31)</f>
+      <c r="AN32">
+        <f>SUM(AN26:AN31)</f>
         <v>604</v>
       </c>
     </row>
@@ -3795,10 +3887,10 @@
         <v>19</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14.25" customHeight="1">
@@ -3840,10 +3932,10 @@
         <v>19</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="14.25" customHeight="1">
@@ -3885,10 +3977,10 @@
         <v>19</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="14.25" customHeight="1">
@@ -3930,10 +4022,10 @@
         <v>19</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1">
@@ -3975,10 +4067,10 @@
         <v>19</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
@@ -4020,10 +4112,10 @@
         <v>19</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="14.25" customHeight="1">
@@ -4065,10 +4157,10 @@
         <v>19</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="14.25" customHeight="1">
@@ -4110,10 +4202,10 @@
         <v>19</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1">
@@ -4155,10 +4247,10 @@
         <v>19</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="14.25" customHeight="1">
@@ -4200,10 +4292,10 @@
         <v>19</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="14.25" customHeight="1">
@@ -4245,10 +4337,10 @@
         <v>19</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="14.25" customHeight="1">
@@ -4290,10 +4382,10 @@
         <v>19</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="14.25" customHeight="1">
@@ -4335,10 +4427,10 @@
         <v>19</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="14.25" customHeight="1">
@@ -4380,10 +4472,10 @@
         <v>19</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="14.25" customHeight="1">
@@ -4426,10 +4518,10 @@
         <v>19</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1">
@@ -4471,10 +4563,10 @@
         <v>19</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1">
@@ -4516,10 +4608,10 @@
         <v>19</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U49" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1">
@@ -4561,10 +4653,10 @@
         <v>19</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1">
@@ -4606,10 +4698,10 @@
         <v>19</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U51" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1">
@@ -4651,10 +4743,10 @@
         <v>19</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1">
@@ -4696,10 +4788,10 @@
         <v>19</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="14.25" customHeight="1">
@@ -4741,10 +4833,10 @@
         <v>19</v>
       </c>
       <c r="T54" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="14.25" customHeight="1">
@@ -4786,10 +4878,10 @@
         <v>19</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="14.25" customHeight="1">
@@ -4831,10 +4923,10 @@
         <v>19</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="14.25" customHeight="1">
@@ -4876,10 +4968,10 @@
         <v>19</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U57" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="14.25" customHeight="1">
@@ -4921,10 +5013,10 @@
         <v>19</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="14.25" customHeight="1">
@@ -4966,10 +5058,10 @@
         <v>19</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U59" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="14.25" customHeight="1">
@@ -5011,10 +5103,10 @@
         <v>19</v>
       </c>
       <c r="T60" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.25" customHeight="1">
@@ -5062,10 +5154,10 @@
         <v>19</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.25" customHeight="1">
@@ -5109,10 +5201,10 @@
         <v>19</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="14.25" customHeight="1">
@@ -5156,10 +5248,10 @@
         <v>19</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U63" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="14.25" customHeight="1">
@@ -5203,10 +5295,10 @@
         <v>19</v>
       </c>
       <c r="T64" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U64" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="14.25" customHeight="1">
@@ -5250,10 +5342,10 @@
         <v>19</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U65" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="14.25" customHeight="1">
@@ -5297,10 +5389,10 @@
         <v>19</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U66" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="14.25" customHeight="1">
@@ -5344,10 +5436,10 @@
         <v>19</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="14.25" customHeight="1">
@@ -5391,10 +5483,10 @@
         <v>19</v>
       </c>
       <c r="T68" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="14.25" customHeight="1">
@@ -5438,10 +5530,10 @@
         <v>19</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U69" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="14.25" customHeight="1">
@@ -5485,10 +5577,10 @@
         <v>19</v>
       </c>
       <c r="T70" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U70" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="14.25" customHeight="1">
@@ -5532,10 +5624,10 @@
         <v>19</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="14.25" customHeight="1">
@@ -5579,10 +5671,10 @@
         <v>19</v>
       </c>
       <c r="T72" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U72" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="14.25" customHeight="1">
@@ -5626,10 +5718,10 @@
         <v>19</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="14.25" customHeight="1">
@@ -5673,10 +5765,10 @@
         <v>19</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="14.25" customHeight="1">
@@ -5720,10 +5812,10 @@
         <v>19</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="14.25" customHeight="1">
@@ -5767,10 +5859,10 @@
         <v>19</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="14.25" customHeight="1">
@@ -5814,10 +5906,10 @@
         <v>19</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="14.25" customHeight="1">
@@ -5861,10 +5953,10 @@
         <v>19</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="14.25" customHeight="1">
@@ -5908,10 +6000,10 @@
         <v>19</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="14.25" customHeight="1">
@@ -5955,10 +6047,10 @@
         <v>19</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="14.25" customHeight="1">
@@ -6002,10 +6094,10 @@
         <v>19</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="14.25" customHeight="1">
@@ -6049,10 +6141,10 @@
         <v>19</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U82" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="14.25" customHeight="1">
@@ -6096,10 +6188,10 @@
         <v>19</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U83" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="14.25" customHeight="1">
@@ -6143,10 +6235,10 @@
         <v>19</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U84" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="14.25" customHeight="1">
@@ -6190,10 +6282,10 @@
         <v>19</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="14.25" customHeight="1">
@@ -6237,10 +6329,10 @@
         <v>19</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U86" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="14.25" customHeight="1">
@@ -6284,10 +6376,10 @@
         <v>19</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="14.25" customHeight="1">
@@ -6331,10 +6423,10 @@
         <v>19</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="14.25" customHeight="1">
@@ -6378,10 +6470,10 @@
         <v>19</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U89" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="14.25" customHeight="1">
@@ -6425,10 +6517,10 @@
         <v>19</v>
       </c>
       <c r="T90" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="14.25" customHeight="1">
@@ -6472,10 +6564,10 @@
         <v>19</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U91" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="14.25" customHeight="1">
@@ -6519,10 +6611,10 @@
         <v>285</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="14.25" customHeight="1">
@@ -6566,10 +6658,10 @@
         <v>285</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U93" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="14.25" customHeight="1">
@@ -6613,10 +6705,10 @@
         <v>285</v>
       </c>
       <c r="T94" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U94" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="14.25" customHeight="1">
@@ -6661,10 +6753,10 @@
         <v>285</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U95" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="14.25" customHeight="1">
@@ -6708,10 +6800,10 @@
         <v>285</v>
       </c>
       <c r="T96" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U96" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="14.25" customHeight="1">
@@ -6755,10 +6847,10 @@
         <v>285</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="14.25" customHeight="1">
@@ -6802,10 +6894,10 @@
         <v>285</v>
       </c>
       <c r="T98" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="14.25" customHeight="1">
@@ -6849,10 +6941,10 @@
         <v>285</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U99" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="14.25" customHeight="1">
@@ -6896,10 +6988,10 @@
         <v>285</v>
       </c>
       <c r="T100" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="14.25" customHeight="1">
@@ -6943,10 +7035,10 @@
         <v>285</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="14.25" customHeight="1">
@@ -6990,10 +7082,10 @@
         <v>285</v>
       </c>
       <c r="T102" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="14.25" customHeight="1">
@@ -7037,10 +7129,10 @@
         <v>285</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U103" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="14.25" customHeight="1">
@@ -7084,10 +7176,10 @@
         <v>285</v>
       </c>
       <c r="T104" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U104" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="14.25" customHeight="1">
@@ -7131,10 +7223,10 @@
         <v>285</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U105" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="14.25" customHeight="1">
@@ -7178,10 +7270,10 @@
         <v>285</v>
       </c>
       <c r="T106" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U106" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="14.25" customHeight="1">
@@ -7225,10 +7317,10 @@
         <v>285</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U107" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="14.25" customHeight="1">
@@ -7272,10 +7364,10 @@
         <v>285</v>
       </c>
       <c r="T108" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U108" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="14.25" customHeight="1">
@@ -7319,10 +7411,10 @@
         <v>285</v>
       </c>
       <c r="T109" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U109" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="14.25" customHeight="1">
@@ -7366,10 +7458,10 @@
         <v>285</v>
       </c>
       <c r="T110" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="14.25" customHeight="1">
@@ -7413,10 +7505,10 @@
         <v>285</v>
       </c>
       <c r="T111" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.25" customHeight="1">
@@ -7460,10 +7552,10 @@
         <v>285</v>
       </c>
       <c r="T112" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="14.25" customHeight="1">
@@ -7507,10 +7599,10 @@
         <v>285</v>
       </c>
       <c r="T113" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="14.25" customHeight="1">
@@ -7554,10 +7646,10 @@
         <v>285</v>
       </c>
       <c r="T114" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="14.25" customHeight="1">
@@ -7601,10 +7693,10 @@
         <v>285</v>
       </c>
       <c r="T115" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U115" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="14.25" customHeight="1">
@@ -7648,10 +7740,10 @@
         <v>285</v>
       </c>
       <c r="T116" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U116" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="14.25" customHeight="1">
@@ -7695,10 +7787,10 @@
         <v>285</v>
       </c>
       <c r="T117" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U117" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="14.25" customHeight="1">
@@ -7742,10 +7834,10 @@
         <v>285</v>
       </c>
       <c r="T118" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U118" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="14.25" customHeight="1">
@@ -7789,10 +7881,10 @@
         <v>285</v>
       </c>
       <c r="T119" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U119" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="14.25" customHeight="1">
@@ -7836,10 +7928,10 @@
         <v>285</v>
       </c>
       <c r="T120" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U120" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="14.25" customHeight="1">
@@ -7883,10 +7975,10 @@
         <v>285</v>
       </c>
       <c r="T121" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U121" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="14.25" customHeight="1">
@@ -7930,10 +8022,10 @@
         <v>285</v>
       </c>
       <c r="T122" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U122" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="14.25" customHeight="1">
@@ -7977,10 +8069,10 @@
         <v>285</v>
       </c>
       <c r="T123" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U123" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="14.25" customHeight="1">
@@ -8024,10 +8116,10 @@
         <v>285</v>
       </c>
       <c r="T124" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U124" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="14.25" customHeight="1">
@@ -8071,10 +8163,10 @@
         <v>285</v>
       </c>
       <c r="T125" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U125" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="14.25" customHeight="1">
@@ -8118,10 +8210,10 @@
         <v>285</v>
       </c>
       <c r="T126" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U126" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="14.25" customHeight="1">
@@ -8165,10 +8257,10 @@
         <v>285</v>
       </c>
       <c r="T127" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U127" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="14.25" customHeight="1">
@@ -8212,10 +8304,10 @@
         <v>285</v>
       </c>
       <c r="T128" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U128" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="14.25" customHeight="1">
@@ -8260,10 +8352,10 @@
         <v>285</v>
       </c>
       <c r="T129" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U129" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="14.25" customHeight="1">
@@ -8307,10 +8399,10 @@
         <v>285</v>
       </c>
       <c r="T130" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U130" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="14.25" customHeight="1">
@@ -8354,10 +8446,10 @@
         <v>285</v>
       </c>
       <c r="T131" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U131" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="14.25" customHeight="1">
@@ -8401,10 +8493,10 @@
         <v>285</v>
       </c>
       <c r="T132" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U132" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="14.25" customHeight="1">
@@ -8448,10 +8540,10 @@
         <v>285</v>
       </c>
       <c r="T133" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U133" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="14.25" customHeight="1">
@@ -8495,10 +8587,10 @@
         <v>285</v>
       </c>
       <c r="T134" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U134" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="14.25" customHeight="1">
@@ -8542,10 +8634,10 @@
         <v>285</v>
       </c>
       <c r="T135" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U135" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="14.25" customHeight="1">
@@ -8589,10 +8681,10 @@
         <v>285</v>
       </c>
       <c r="T136" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U136" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="14.25" customHeight="1">
@@ -8636,10 +8728,10 @@
         <v>285</v>
       </c>
       <c r="T137" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U137" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="14.25" customHeight="1">
@@ -8683,10 +8775,10 @@
         <v>285</v>
       </c>
       <c r="T138" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U138" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="14.25" customHeight="1">
@@ -8730,10 +8822,10 @@
         <v>285</v>
       </c>
       <c r="T139" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U139" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="14.25" customHeight="1">
@@ -8777,10 +8869,10 @@
         <v>285</v>
       </c>
       <c r="T140" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U140" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="14.25" customHeight="1">
@@ -8824,10 +8916,10 @@
         <v>285</v>
       </c>
       <c r="T141" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U141" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="14.25" customHeight="1">
@@ -8871,10 +8963,10 @@
         <v>285</v>
       </c>
       <c r="T142" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U142" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="14.25" customHeight="1">
@@ -8918,10 +9010,10 @@
         <v>285</v>
       </c>
       <c r="T143" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U143" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="14.25" customHeight="1">
@@ -8965,10 +9057,10 @@
         <v>285</v>
       </c>
       <c r="T144" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U144" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="14.25" customHeight="1">
@@ -9012,10 +9104,10 @@
         <v>285</v>
       </c>
       <c r="T145" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U145" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="14.25" customHeight="1">
@@ -9059,10 +9151,10 @@
         <v>285</v>
       </c>
       <c r="T146" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U146" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="14.25" customHeight="1">
@@ -9106,10 +9198,10 @@
         <v>285</v>
       </c>
       <c r="T147" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U147" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="14.25" customHeight="1">
@@ -9153,10 +9245,10 @@
         <v>285</v>
       </c>
       <c r="T148" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U148" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="14.25" customHeight="1">
@@ -9200,10 +9292,10 @@
         <v>285</v>
       </c>
       <c r="T149" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U149" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="14.25" customHeight="1">
@@ -9247,10 +9339,10 @@
         <v>285</v>
       </c>
       <c r="T150" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U150" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
@@ -9294,10 +9386,10 @@
         <v>285</v>
       </c>
       <c r="T151" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U151" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
@@ -9341,10 +9433,10 @@
         <v>285</v>
       </c>
       <c r="T152" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U152" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
@@ -9389,10 +9481,10 @@
         <v>285</v>
       </c>
       <c r="T153" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U153" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
@@ -9436,10 +9528,10 @@
         <v>285</v>
       </c>
       <c r="T154" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U154" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
@@ -9483,10 +9575,10 @@
         <v>285</v>
       </c>
       <c r="T155" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U155" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
@@ -9530,10 +9622,10 @@
         <v>285</v>
       </c>
       <c r="T156" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U156" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
@@ -9577,10 +9669,10 @@
         <v>285</v>
       </c>
       <c r="T157" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U157" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
@@ -9624,10 +9716,10 @@
         <v>285</v>
       </c>
       <c r="T158" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U158" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
@@ -9671,10 +9763,10 @@
         <v>285</v>
       </c>
       <c r="T159" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U159" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
@@ -9718,10 +9810,10 @@
         <v>285</v>
       </c>
       <c r="T160" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U160" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="14.25" customHeight="1">
@@ -9765,10 +9857,10 @@
         <v>285</v>
       </c>
       <c r="T161" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U161" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="14.25" customHeight="1">
@@ -9812,10 +9904,10 @@
         <v>285</v>
       </c>
       <c r="T162" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U162" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="14.25" customHeight="1">
@@ -9860,10 +9952,10 @@
         <v>285</v>
       </c>
       <c r="T163" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U163" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="14.25" customHeight="1">
@@ -9907,10 +9999,10 @@
         <v>285</v>
       </c>
       <c r="T164" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U164" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="14.25" customHeight="1">
@@ -9954,10 +10046,10 @@
         <v>285</v>
       </c>
       <c r="T165" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U165" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="14.25" customHeight="1">
@@ -10001,10 +10093,10 @@
         <v>285</v>
       </c>
       <c r="T166" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U166" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="14.25" customHeight="1">
@@ -10048,10 +10140,10 @@
         <v>285</v>
       </c>
       <c r="T167" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U167" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="14.25" customHeight="1">
@@ -10095,10 +10187,10 @@
         <v>285</v>
       </c>
       <c r="T168" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U168" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="14.25" customHeight="1">
@@ -10142,10 +10234,10 @@
         <v>285</v>
       </c>
       <c r="T169" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U169" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="14.25" customHeight="1">
@@ -10189,10 +10281,10 @@
         <v>285</v>
       </c>
       <c r="T170" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U170" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="14.25" customHeight="1">
@@ -10236,10 +10328,10 @@
         <v>285</v>
       </c>
       <c r="T171" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U171" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="14.25" customHeight="1">
@@ -10283,10 +10375,10 @@
         <v>285</v>
       </c>
       <c r="T172" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U172" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="14.25" customHeight="1">
@@ -10330,10 +10422,10 @@
         <v>285</v>
       </c>
       <c r="T173" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U173" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:21" ht="14.25" customHeight="1">
@@ -10377,10 +10469,10 @@
         <v>285</v>
       </c>
       <c r="T174" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U174" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:21" ht="14.25" customHeight="1">
@@ -10424,10 +10516,10 @@
         <v>285</v>
       </c>
       <c r="T175" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U175" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="14.25" customHeight="1">
@@ -10471,10 +10563,10 @@
         <v>285</v>
       </c>
       <c r="T176" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U176" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:21" ht="14.25" customHeight="1">
@@ -10523,10 +10615,10 @@
         <v>285</v>
       </c>
       <c r="T177" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U177" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="14.25" customHeight="1">
@@ -10570,10 +10662,10 @@
         <v>285</v>
       </c>
       <c r="T178" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U178" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="14.25" customHeight="1">
@@ -10617,10 +10709,10 @@
         <v>285</v>
       </c>
       <c r="T179" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U179" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="14.25" customHeight="1">
@@ -10664,10 +10756,10 @@
         <v>112</v>
       </c>
       <c r="T180" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U180" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="14.25" customHeight="1">
@@ -10711,10 +10803,10 @@
         <v>112</v>
       </c>
       <c r="T181" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U181" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:21" ht="14.25" customHeight="1">
@@ -10758,10 +10850,10 @@
         <v>112</v>
       </c>
       <c r="T182" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U182" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:21" ht="14.25" customHeight="1">
@@ -10805,10 +10897,10 @@
         <v>112</v>
       </c>
       <c r="T183" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U183" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:21" ht="14.25" customHeight="1">
@@ -10852,10 +10944,10 @@
         <v>112</v>
       </c>
       <c r="T184" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U184" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="14.25" customHeight="1">
@@ -10899,10 +10991,10 @@
         <v>112</v>
       </c>
       <c r="T185" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U185" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:21" ht="14.25" customHeight="1">
@@ -10946,10 +11038,10 @@
         <v>112</v>
       </c>
       <c r="T186" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U186" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="187" spans="1:21" ht="14.25" customHeight="1">
@@ -10994,10 +11086,10 @@
         <v>112</v>
       </c>
       <c r="T187" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U187" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="14.25" customHeight="1">
@@ -11041,10 +11133,10 @@
         <v>112</v>
       </c>
       <c r="T188" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U188" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" spans="1:21" ht="14.25" customHeight="1">
@@ -11088,10 +11180,10 @@
         <v>112</v>
       </c>
       <c r="T189" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U189" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="190" spans="1:21" ht="14.25" customHeight="1">
@@ -11135,10 +11227,10 @@
         <v>112</v>
       </c>
       <c r="T190" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U190" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:21" ht="14.25" customHeight="1">
@@ -11182,10 +11274,10 @@
         <v>112</v>
       </c>
       <c r="T191" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U191" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="14.25" customHeight="1">
@@ -11229,10 +11321,10 @@
         <v>112</v>
       </c>
       <c r="T192" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U192" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="14.25" customHeight="1">
@@ -11276,10 +11368,10 @@
         <v>112</v>
       </c>
       <c r="T193" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U193" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="14.25" customHeight="1">
@@ -11323,10 +11415,10 @@
         <v>112</v>
       </c>
       <c r="T194" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U194" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:21" ht="14.25" customHeight="1">
@@ -11370,10 +11462,10 @@
         <v>112</v>
       </c>
       <c r="T195" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U195" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="14.25" customHeight="1">
@@ -11417,10 +11509,10 @@
         <v>112</v>
       </c>
       <c r="T196" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U196" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:21" ht="14.25" customHeight="1">
@@ -11464,10 +11556,10 @@
         <v>112</v>
       </c>
       <c r="T197" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U197" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="198" spans="1:21" ht="14.25" customHeight="1">
@@ -11511,10 +11603,10 @@
         <v>112</v>
       </c>
       <c r="T198" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U198" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="14.25" customHeight="1">
@@ -11558,10 +11650,10 @@
         <v>112</v>
       </c>
       <c r="T199" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U199" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="14.25" customHeight="1">
@@ -11605,10 +11697,10 @@
         <v>112</v>
       </c>
       <c r="T200" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U200" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="14.25" customHeight="1">
@@ -11652,10 +11744,10 @@
         <v>112</v>
       </c>
       <c r="T201" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U201" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:21" ht="14.25" customHeight="1">
@@ -11699,10 +11791,10 @@
         <v>112</v>
       </c>
       <c r="T202" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U202" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:21" ht="14.25" customHeight="1">
@@ -11746,10 +11838,10 @@
         <v>112</v>
       </c>
       <c r="T203" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U203" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:21" ht="14.25" customHeight="1">
@@ -11769,10 +11861,10 @@
         <v>112</v>
       </c>
       <c r="T204" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U204" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="205" spans="1:21" ht="14.25" customHeight="1">
@@ -11792,10 +11884,10 @@
         <v>112</v>
       </c>
       <c r="T205" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U205" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="14.25" customHeight="1">
@@ -11815,10 +11907,10 @@
         <v>112</v>
       </c>
       <c r="T206" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U206" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="1:21" ht="14.25" customHeight="1">
@@ -11838,10 +11930,10 @@
         <v>112</v>
       </c>
       <c r="T207" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U207" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="14.25" customHeight="1">
@@ -11861,10 +11953,10 @@
         <v>112</v>
       </c>
       <c r="T208" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U208" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:21" ht="14.25" customHeight="1">
@@ -11884,10 +11976,10 @@
         <v>112</v>
       </c>
       <c r="T209" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U209" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="14.25" customHeight="1">
@@ -11907,10 +11999,10 @@
         <v>112</v>
       </c>
       <c r="T210" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U210" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="14.25" customHeight="1">
@@ -11930,10 +12022,10 @@
         <v>112</v>
       </c>
       <c r="T211" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U211" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:21" ht="14.25" customHeight="1">
@@ -11953,10 +12045,10 @@
         <v>112</v>
       </c>
       <c r="T212" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U212" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:21" ht="14.25" customHeight="1">
@@ -11976,10 +12068,10 @@
         <v>112</v>
       </c>
       <c r="T213" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U213" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="214" spans="1:21" ht="14.25" customHeight="1">
@@ -11999,10 +12091,10 @@
         <v>112</v>
       </c>
       <c r="T214" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U214" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:21" ht="14.25" customHeight="1">
@@ -12022,10 +12114,10 @@
         <v>112</v>
       </c>
       <c r="T215" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U215" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="14.25" customHeight="1">
@@ -12045,10 +12137,10 @@
         <v>112</v>
       </c>
       <c r="T216" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U216" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:21" ht="14.25" customHeight="1">
@@ -12068,10 +12160,10 @@
         <v>112</v>
       </c>
       <c r="T217" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U217" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="14.25" customHeight="1">
@@ -12091,10 +12183,10 @@
         <v>112</v>
       </c>
       <c r="T218" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U218" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="14.25" customHeight="1">
@@ -12114,10 +12206,10 @@
         <v>112</v>
       </c>
       <c r="T219" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U219" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:21" ht="14.25" customHeight="1">
@@ -12137,10 +12229,10 @@
         <v>112</v>
       </c>
       <c r="T220" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U220" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:21" ht="14.25" customHeight="1">
@@ -12160,10 +12252,10 @@
         <v>112</v>
       </c>
       <c r="T221" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U221" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="1:21" ht="14.25" customHeight="1">
@@ -12183,10 +12275,10 @@
         <v>112</v>
       </c>
       <c r="T222" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U222" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" spans="1:21" ht="14.25" customHeight="1">
@@ -12206,10 +12298,10 @@
         <v>112</v>
       </c>
       <c r="T223" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U223" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:21" ht="14.25" customHeight="1">
@@ -12229,10 +12321,10 @@
         <v>383</v>
       </c>
       <c r="T224" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U224" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:21" ht="14.25" customHeight="1">
@@ -12252,10 +12344,10 @@
         <v>383</v>
       </c>
       <c r="T225" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U225" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:21" ht="14.25" customHeight="1">
@@ -12275,10 +12367,10 @@
         <v>383</v>
       </c>
       <c r="T226" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U226" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:21" ht="14.25" customHeight="1">
@@ -12298,10 +12390,10 @@
         <v>383</v>
       </c>
       <c r="T227" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U227" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:21" ht="14.25" customHeight="1">
@@ -12321,10 +12413,10 @@
         <v>383</v>
       </c>
       <c r="T228" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U228" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:21" ht="14.25" customHeight="1">
@@ -12344,10 +12436,10 @@
         <v>383</v>
       </c>
       <c r="T229" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U229" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:21" ht="14.25" customHeight="1">
@@ -12367,10 +12459,10 @@
         <v>383</v>
       </c>
       <c r="T230" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U230" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:21" ht="14.25" customHeight="1">
@@ -12390,10 +12482,10 @@
         <v>383</v>
       </c>
       <c r="T231" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U231" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:21" ht="14.25" customHeight="1">
@@ -12413,10 +12505,10 @@
         <v>383</v>
       </c>
       <c r="T232" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U232" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:21" ht="14.25" customHeight="1">
@@ -12436,10 +12528,10 @@
         <v>383</v>
       </c>
       <c r="T233" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U233" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="14.25" customHeight="1">
@@ -12459,10 +12551,10 @@
         <v>383</v>
       </c>
       <c r="T234" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U234" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="14.25" customHeight="1">
@@ -12487,10 +12579,10 @@
         <v>383</v>
       </c>
       <c r="T235" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U235" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:21" ht="14.25" customHeight="1">
@@ -12515,10 +12607,10 @@
         <v>383</v>
       </c>
       <c r="T236" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U236" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="14.25" customHeight="1">
@@ -12543,10 +12635,10 @@
         <v>383</v>
       </c>
       <c r="T237" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U237" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="238" spans="1:21" ht="14.25" customHeight="1">
@@ -12571,10 +12663,10 @@
         <v>383</v>
       </c>
       <c r="T238" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U238" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="14.25" customHeight="1">
@@ -12599,10 +12691,10 @@
         <v>383</v>
       </c>
       <c r="T239" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U239" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" spans="1:21" ht="14.25" customHeight="1">
@@ -12622,10 +12714,10 @@
         <v>383</v>
       </c>
       <c r="T240" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U240" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="241" spans="1:21" ht="14.25" customHeight="1">
@@ -12645,10 +12737,10 @@
         <v>383</v>
       </c>
       <c r="T241" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U241" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="14.25" customHeight="1">
@@ -12668,10 +12760,10 @@
         <v>383</v>
       </c>
       <c r="T242" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U242" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:21" ht="14.25" customHeight="1">
@@ -12691,10 +12783,10 @@
         <v>383</v>
       </c>
       <c r="T243" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U243" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="1:21" ht="14.25" customHeight="1">
@@ -12714,10 +12806,10 @@
         <v>383</v>
       </c>
       <c r="T244" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U244" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="245" spans="1:21" ht="14.25" customHeight="1">
@@ -12737,10 +12829,10 @@
         <v>383</v>
       </c>
       <c r="T245" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U245" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="246" spans="1:21" ht="14.25" customHeight="1">
@@ -12760,10 +12852,10 @@
         <v>383</v>
       </c>
       <c r="T246" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U246" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:21" ht="14.25" customHeight="1">
@@ -12783,10 +12875,10 @@
         <v>383</v>
       </c>
       <c r="T247" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U247" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="248" spans="1:21" ht="14.25" customHeight="1">
@@ -12806,10 +12898,10 @@
         <v>383</v>
       </c>
       <c r="T248" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U248" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:21" ht="14.25" customHeight="1">
@@ -12829,10 +12921,10 @@
         <v>383</v>
       </c>
       <c r="T249" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U249" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="250" spans="1:21" ht="14.25" customHeight="1">
@@ -12852,10 +12944,10 @@
         <v>383</v>
       </c>
       <c r="T250" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U250" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="251" spans="1:21" ht="14.25" customHeight="1">
@@ -12875,10 +12967,10 @@
         <v>383</v>
       </c>
       <c r="T251" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U251" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:21" ht="14.25" customHeight="1">
@@ -12898,10 +12990,10 @@
         <v>383</v>
       </c>
       <c r="T252" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U252" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:21" ht="14.25" customHeight="1">
@@ -12921,10 +13013,10 @@
         <v>383</v>
       </c>
       <c r="T253" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U253" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:21" ht="14.25" customHeight="1">
@@ -12944,10 +13036,10 @@
         <v>383</v>
       </c>
       <c r="T254" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U254" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="255" spans="1:21" ht="14.25" customHeight="1">
@@ -12968,10 +13060,10 @@
         <v>383</v>
       </c>
       <c r="T255" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U255" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="1:21" ht="14.25" customHeight="1">
@@ -12991,10 +13083,10 @@
         <v>383</v>
       </c>
       <c r="T256" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U256" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:21" ht="14.25" customHeight="1">
@@ -13014,10 +13106,10 @@
         <v>383</v>
       </c>
       <c r="T257" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U257" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="1:21" ht="14.25" customHeight="1">
@@ -13037,10 +13129,10 @@
         <v>383</v>
       </c>
       <c r="T258" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U258" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="1:21" ht="14.25" customHeight="1">
@@ -13060,10 +13152,10 @@
         <v>383</v>
       </c>
       <c r="T259" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U259" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="260" spans="1:21" ht="14.25" customHeight="1">
@@ -13083,10 +13175,10 @@
         <v>383</v>
       </c>
       <c r="T260" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U260" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="261" spans="1:21" ht="14.25" customHeight="1">
@@ -13106,10 +13198,10 @@
         <v>383</v>
       </c>
       <c r="T261" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U261" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="262" spans="1:21" ht="14.25" customHeight="1">
@@ -13129,10 +13221,10 @@
         <v>383</v>
       </c>
       <c r="T262" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U262" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="1:21" ht="14.25" customHeight="1">
@@ -13152,10 +13244,10 @@
         <v>383</v>
       </c>
       <c r="T263" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U263" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="264" spans="1:21" ht="14.25" customHeight="1">
@@ -13175,10 +13267,10 @@
         <v>383</v>
       </c>
       <c r="T264" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U264" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="265" spans="1:21" ht="14.25" customHeight="1">
@@ -13198,10 +13290,10 @@
         <v>383</v>
       </c>
       <c r="T265" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U265" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="266" spans="1:21" ht="14.25" customHeight="1">
@@ -13221,10 +13313,10 @@
         <v>383</v>
       </c>
       <c r="T266" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U266" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="267" spans="1:21" ht="14.25" customHeight="1">
@@ -13244,10 +13336,10 @@
         <v>383</v>
       </c>
       <c r="T267" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U267" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="268" spans="1:21" ht="14.25" customHeight="1">
@@ -13267,10 +13359,10 @@
         <v>383</v>
       </c>
       <c r="T268" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U268" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="269" spans="1:21" ht="14.25" customHeight="1">
@@ -13290,10 +13382,10 @@
         <v>383</v>
       </c>
       <c r="T269" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U269" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="270" spans="1:21" ht="14.25" customHeight="1">
@@ -13313,10 +13405,10 @@
         <v>383</v>
       </c>
       <c r="T270" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U270" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="271" spans="1:21" ht="14.25" customHeight="1">
@@ -13336,10 +13428,10 @@
         <v>383</v>
       </c>
       <c r="T271" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U271" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="272" spans="1:21" ht="14.25" customHeight="1">
@@ -13359,10 +13451,10 @@
         <v>383</v>
       </c>
       <c r="T272" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U272" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="273" spans="1:21" ht="14.25" customHeight="1">
@@ -13382,10 +13474,10 @@
         <v>383</v>
       </c>
       <c r="T273" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U273" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="274" spans="1:21" ht="14.25" customHeight="1">
@@ -13405,10 +13497,10 @@
         <v>383</v>
       </c>
       <c r="T274" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U274" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="275" spans="1:21" ht="14.25" customHeight="1">
@@ -13428,10 +13520,10 @@
         <v>383</v>
       </c>
       <c r="T275" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U275" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:21" ht="14.25" customHeight="1">
@@ -13451,10 +13543,10 @@
         <v>383</v>
       </c>
       <c r="T276" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U276" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:21" ht="14.25" customHeight="1">
@@ -13474,10 +13566,10 @@
         <v>383</v>
       </c>
       <c r="T277" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U277" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="278" spans="1:21" ht="14.25" customHeight="1">
@@ -13497,10 +13589,10 @@
         <v>383</v>
       </c>
       <c r="T278" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U278" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="279" spans="1:21" ht="14.25" customHeight="1">
@@ -13520,10 +13612,10 @@
         <v>383</v>
       </c>
       <c r="T279" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U279" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:21" ht="14.25" customHeight="1">
@@ -13543,10 +13635,10 @@
         <v>383</v>
       </c>
       <c r="T280" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U280" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="281" spans="1:21" ht="14.25" customHeight="1">
@@ -13566,10 +13658,10 @@
         <v>383</v>
       </c>
       <c r="T281" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U281" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="1:21" ht="14.25" customHeight="1">
@@ -13589,10 +13681,10 @@
         <v>383</v>
       </c>
       <c r="T282" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U282" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:21" ht="14.25" customHeight="1">
@@ -13612,10 +13704,10 @@
         <v>383</v>
       </c>
       <c r="T283" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U283" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="284" spans="1:21" ht="14.25" customHeight="1">
@@ -13635,10 +13727,10 @@
         <v>383</v>
       </c>
       <c r="T284" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U284" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:21" ht="14.25" customHeight="1">
@@ -13658,10 +13750,10 @@
         <v>383</v>
       </c>
       <c r="T285" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U285" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="286" spans="1:21" ht="14.25" customHeight="1">
@@ -13681,10 +13773,10 @@
         <v>383</v>
       </c>
       <c r="T286" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U286" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="287" spans="1:21" ht="14.25" customHeight="1">
@@ -13704,10 +13796,10 @@
         <v>383</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U287" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="288" spans="1:21" ht="14.25" customHeight="1">
@@ -13727,10 +13819,10 @@
         <v>383</v>
       </c>
       <c r="T288" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U288" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="289" spans="1:21" ht="14.25" customHeight="1">
@@ -13750,10 +13842,10 @@
         <v>383</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U289" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="290" spans="1:21" ht="14.25" customHeight="1">
@@ -13773,10 +13865,10 @@
         <v>383</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U290" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="291" spans="1:21" ht="14.25" customHeight="1">
@@ -13796,10 +13888,10 @@
         <v>383</v>
       </c>
       <c r="T291" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U291" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="292" spans="1:21" ht="14.25" customHeight="1">
@@ -13819,10 +13911,10 @@
         <v>383</v>
       </c>
       <c r="T292" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U292" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="293" spans="1:21" ht="14.25" customHeight="1">
@@ -13842,10 +13934,10 @@
         <v>383</v>
       </c>
       <c r="T293" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U293" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="294" spans="1:21" ht="14.25" customHeight="1">
@@ -13865,10 +13957,10 @@
         <v>383</v>
       </c>
       <c r="T294" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U294" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="295" spans="1:21" ht="14.25" customHeight="1">
@@ -13888,10 +13980,10 @@
         <v>383</v>
       </c>
       <c r="T295" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U295" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:21" ht="14.25" customHeight="1">
@@ -13911,10 +14003,10 @@
         <v>383</v>
       </c>
       <c r="T296" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U296" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="1:21" ht="14.25" customHeight="1">
@@ -13934,10 +14026,10 @@
         <v>383</v>
       </c>
       <c r="T297" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U297" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="298" spans="1:21" ht="14.25" customHeight="1">
@@ -13957,10 +14049,10 @@
         <v>383</v>
       </c>
       <c r="T298" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U298" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="299" spans="1:21" ht="14.25" customHeight="1">
@@ -13980,10 +14072,10 @@
         <v>383</v>
       </c>
       <c r="T299" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U299" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="300" spans="1:21" ht="14.25" customHeight="1">
@@ -14003,10 +14095,10 @@
         <v>383</v>
       </c>
       <c r="T300" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U300" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="301" spans="1:21" ht="14.25" customHeight="1">
@@ -14026,10 +14118,10 @@
         <v>383</v>
       </c>
       <c r="T301" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U301" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="302" spans="1:21" ht="14.25" customHeight="1">
@@ -14049,10 +14141,10 @@
         <v>383</v>
       </c>
       <c r="T302" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U302" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="303" spans="1:21" ht="14.25" customHeight="1">
@@ -14072,10 +14164,10 @@
         <v>383</v>
       </c>
       <c r="T303" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U303" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="304" spans="1:21" ht="14.25" customHeight="1">
@@ -14095,10 +14187,10 @@
         <v>383</v>
       </c>
       <c r="T304" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U304" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="305" spans="1:21" ht="14.25" customHeight="1">
@@ -14118,10 +14210,10 @@
         <v>383</v>
       </c>
       <c r="T305" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U305" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="306" spans="1:21" ht="14.25" customHeight="1">
@@ -14141,10 +14233,10 @@
         <v>383</v>
       </c>
       <c r="T306" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U306" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="307" spans="1:21" ht="14.25" customHeight="1">
@@ -14164,10 +14256,10 @@
         <v>383</v>
       </c>
       <c r="T307" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U307" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="308" spans="1:21" ht="14.25" customHeight="1">
@@ -14187,10 +14279,10 @@
         <v>383</v>
       </c>
       <c r="T308" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U308" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="309" spans="1:21" ht="14.25" customHeight="1">
@@ -14210,10 +14302,10 @@
         <v>383</v>
       </c>
       <c r="T309" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U309" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="310" spans="1:21" ht="14.25" customHeight="1">
@@ -14233,10 +14325,10 @@
         <v>383</v>
       </c>
       <c r="T310" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U310" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="311" spans="1:21" ht="14.25" customHeight="1">
@@ -14256,10 +14348,10 @@
         <v>383</v>
       </c>
       <c r="T311" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U311" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="312" spans="1:21" ht="14.25" customHeight="1">
@@ -14279,10 +14371,10 @@
         <v>383</v>
       </c>
       <c r="T312" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U312" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="313" spans="1:21" ht="14.25" customHeight="1">
@@ -14302,10 +14394,10 @@
         <v>383</v>
       </c>
       <c r="T313" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U313" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="314" spans="1:21" ht="14.25" customHeight="1">
@@ -14325,10 +14417,10 @@
         <v>383</v>
       </c>
       <c r="T314" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U314" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="315" spans="1:21" ht="14.25" customHeight="1">
@@ -14348,10 +14440,10 @@
         <v>383</v>
       </c>
       <c r="T315" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U315" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="316" spans="1:21" ht="14.25" customHeight="1">
@@ -14371,10 +14463,10 @@
         <v>383</v>
       </c>
       <c r="T316" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U316" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="317" spans="1:21" ht="14.25" customHeight="1">
@@ -14394,10 +14486,10 @@
         <v>383</v>
       </c>
       <c r="T317" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U317" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="318" spans="1:21" ht="14.25" customHeight="1">
@@ -14417,10 +14509,10 @@
         <v>383</v>
       </c>
       <c r="T318" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U318" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="319" spans="1:21" ht="14.25" customHeight="1">
@@ -14440,10 +14532,10 @@
         <v>383</v>
       </c>
       <c r="T319" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U319" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="320" spans="1:21" ht="14.25" customHeight="1">
@@ -14463,10 +14555,10 @@
         <v>383</v>
       </c>
       <c r="T320" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U320" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="321" spans="1:21" ht="14.25" customHeight="1">
@@ -14486,10 +14578,10 @@
         <v>383</v>
       </c>
       <c r="T321" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U321" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="322" spans="1:21" ht="14.25" customHeight="1">
@@ -14509,10 +14601,10 @@
         <v>383</v>
       </c>
       <c r="T322" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U322" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="323" spans="1:21" ht="14.25" customHeight="1">
@@ -14532,10 +14624,10 @@
         <v>383</v>
       </c>
       <c r="T323" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U323" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" spans="1:21" ht="14.25" customHeight="1">
@@ -14555,10 +14647,10 @@
         <v>383</v>
       </c>
       <c r="T324" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U324" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="325" spans="1:21" ht="14.25" customHeight="1">
@@ -14578,10 +14670,10 @@
         <v>383</v>
       </c>
       <c r="T325" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U325" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="326" spans="1:21" ht="14.25" customHeight="1">
@@ -14601,10 +14693,10 @@
         <v>383</v>
       </c>
       <c r="T326" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U326" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="327" spans="1:21" ht="14.25" customHeight="1">
@@ -14624,10 +14716,10 @@
         <v>383</v>
       </c>
       <c r="T327" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U327" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:21" ht="14.25" customHeight="1">
@@ -14647,10 +14739,10 @@
         <v>383</v>
       </c>
       <c r="T328" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U328" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:21" ht="14.25" customHeight="1">
@@ -14670,10 +14762,10 @@
         <v>383</v>
       </c>
       <c r="T329" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U329" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="330" spans="1:21" ht="14.25" customHeight="1">
@@ -14693,10 +14785,10 @@
         <v>383</v>
       </c>
       <c r="T330" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U330" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="331" spans="1:21" ht="14.25" customHeight="1">
@@ -14716,10 +14808,10 @@
         <v>383</v>
       </c>
       <c r="T331" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U331" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:21" ht="14.25" customHeight="1">
@@ -14739,10 +14831,10 @@
         <v>383</v>
       </c>
       <c r="T332" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U332" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="333" spans="1:21" ht="14.25" customHeight="1">
@@ -14762,10 +14854,10 @@
         <v>383</v>
       </c>
       <c r="T333" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U333" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="334" spans="1:21" ht="14.25" customHeight="1">
@@ -14785,10 +14877,10 @@
         <v>383</v>
       </c>
       <c r="T334" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U334" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="335" spans="1:21" ht="14.25" customHeight="1">
@@ -14808,10 +14900,10 @@
         <v>383</v>
       </c>
       <c r="T335" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U335" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336" spans="1:21" ht="14.25" customHeight="1">
@@ -14831,10 +14923,10 @@
         <v>383</v>
       </c>
       <c r="T336" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U336" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="337" spans="1:21" ht="14.25" customHeight="1">
@@ -14854,10 +14946,10 @@
         <v>383</v>
       </c>
       <c r="T337" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U337" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="338" spans="1:21" ht="14.25" customHeight="1">
@@ -14877,10 +14969,10 @@
         <v>383</v>
       </c>
       <c r="T338" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U338" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" spans="1:21" ht="14.25" customHeight="1">
@@ -14900,10 +14992,10 @@
         <v>383</v>
       </c>
       <c r="T339" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U339" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="340" spans="1:21" ht="14.25" customHeight="1">
@@ -14923,10 +15015,10 @@
         <v>383</v>
       </c>
       <c r="T340" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U340" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="341" spans="1:21" ht="14.25" customHeight="1">
@@ -14946,10 +15038,10 @@
         <v>383</v>
       </c>
       <c r="T341" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U341" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="342" spans="1:21" ht="14.25" customHeight="1">
@@ -14969,10 +15061,10 @@
         <v>383</v>
       </c>
       <c r="T342" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U342" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="343" spans="1:21" ht="14.25" customHeight="1">
@@ -14992,10 +15084,10 @@
         <v>383</v>
       </c>
       <c r="T343" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U343" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="344" spans="1:21" ht="14.25" customHeight="1">
@@ -15015,10 +15107,10 @@
         <v>383</v>
       </c>
       <c r="T344" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U344" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="345" spans="1:21" ht="14.25" customHeight="1">
@@ -15038,10 +15130,10 @@
         <v>383</v>
       </c>
       <c r="T345" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U345" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="346" spans="1:21" ht="14.25" customHeight="1">
@@ -15061,10 +15153,10 @@
         <v>383</v>
       </c>
       <c r="T346" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U346" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" spans="1:21" ht="14.25" customHeight="1">
@@ -15084,10 +15176,10 @@
         <v>383</v>
       </c>
       <c r="T347" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U347" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="348" spans="1:21" ht="14.25" customHeight="1">
@@ -15107,10 +15199,10 @@
         <v>383</v>
       </c>
       <c r="T348" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U348" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="349" spans="1:21" ht="14.25" customHeight="1">
@@ -15130,10 +15222,10 @@
         <v>383</v>
       </c>
       <c r="T349" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U349" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="350" spans="1:21" ht="14.25" customHeight="1">
@@ -15153,10 +15245,10 @@
         <v>383</v>
       </c>
       <c r="T350" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U350" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="351" spans="1:21" ht="14.25" customHeight="1">
@@ -15176,10 +15268,10 @@
         <v>383</v>
       </c>
       <c r="T351" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U351" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" spans="1:21" ht="14.25" customHeight="1">
@@ -15199,10 +15291,10 @@
         <v>383</v>
       </c>
       <c r="T352" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U352" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="353" spans="1:21" ht="14.25" customHeight="1">
@@ -15222,10 +15314,10 @@
         <v>383</v>
       </c>
       <c r="T353" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U353" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="354" spans="1:21" ht="14.25" customHeight="1">
@@ -15245,10 +15337,10 @@
         <v>383</v>
       </c>
       <c r="T354" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U354" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="355" spans="1:21" ht="14.25" customHeight="1">
@@ -15268,10 +15360,10 @@
         <v>383</v>
       </c>
       <c r="T355" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U355" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="356" spans="1:21" ht="14.25" customHeight="1">
@@ -15291,10 +15383,10 @@
         <v>383</v>
       </c>
       <c r="T356" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U356" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="357" spans="1:21" ht="14.25" customHeight="1">
@@ -15314,10 +15406,10 @@
         <v>383</v>
       </c>
       <c r="T357" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U357" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="358" spans="1:21" ht="14.25" customHeight="1">
@@ -15337,10 +15429,10 @@
         <v>383</v>
       </c>
       <c r="T358" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U358" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="359" spans="1:21" ht="14.25" customHeight="1">
@@ -15360,10 +15452,10 @@
         <v>383</v>
       </c>
       <c r="T359" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U359" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="360" spans="1:21" ht="14.25" customHeight="1">
@@ -15383,10 +15475,10 @@
         <v>383</v>
       </c>
       <c r="T360" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U360" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="361" spans="1:21" ht="14.25" customHeight="1">
@@ -15406,10 +15498,10 @@
         <v>383</v>
       </c>
       <c r="T361" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U361" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="362" spans="1:21" ht="14.25" customHeight="1">
@@ -15429,10 +15521,10 @@
         <v>383</v>
       </c>
       <c r="T362" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U362" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="363" spans="1:21" ht="14.25" customHeight="1">
@@ -15452,10 +15544,10 @@
         <v>383</v>
       </c>
       <c r="T363" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U363" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="364" spans="1:21" ht="14.25" customHeight="1">
@@ -15475,10 +15567,10 @@
         <v>383</v>
       </c>
       <c r="T364" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U364" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="365" spans="1:21" ht="14.25" customHeight="1">
@@ -15498,10 +15590,10 @@
         <v>383</v>
       </c>
       <c r="T365" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U365" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="1:21" ht="14.25" customHeight="1">
@@ -15521,10 +15613,10 @@
         <v>383</v>
       </c>
       <c r="T366" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U366" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="367" spans="1:21" ht="14.25" customHeight="1">
@@ -15544,10 +15636,10 @@
         <v>383</v>
       </c>
       <c r="T367" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U367" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="368" spans="1:21" ht="14.25" customHeight="1">
@@ -15567,10 +15659,10 @@
         <v>383</v>
       </c>
       <c r="T368" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U368" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="369" spans="1:21" ht="14.25" customHeight="1">
@@ -15590,10 +15682,10 @@
         <v>383</v>
       </c>
       <c r="T369" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U369" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="370" spans="1:21" ht="14.25" customHeight="1">
@@ -15613,10 +15705,10 @@
         <v>383</v>
       </c>
       <c r="T370" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U370" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="371" spans="1:21" ht="14.25" customHeight="1">
@@ -15636,10 +15728,10 @@
         <v>383</v>
       </c>
       <c r="T371" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U371" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="372" spans="1:21" ht="14.25" customHeight="1">
@@ -15659,10 +15751,10 @@
         <v>383</v>
       </c>
       <c r="T372" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U372" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="373" spans="1:21" ht="14.25" customHeight="1">
@@ -15682,10 +15774,10 @@
         <v>383</v>
       </c>
       <c r="T373" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U373" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="374" spans="1:21" ht="14.25" customHeight="1">
@@ -15705,10 +15797,10 @@
         <v>383</v>
       </c>
       <c r="T374" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U374" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="375" spans="1:21" ht="14.25" customHeight="1">
@@ -15728,10 +15820,10 @@
         <v>383</v>
       </c>
       <c r="T375" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U375" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="376" spans="1:21" ht="14.25" customHeight="1">
@@ -15751,10 +15843,10 @@
         <v>383</v>
       </c>
       <c r="T376" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U376" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="377" spans="1:21" ht="14.25" customHeight="1">
@@ -15774,10 +15866,10 @@
         <v>383</v>
       </c>
       <c r="T377" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U377" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="378" spans="1:21" ht="14.25" customHeight="1">
@@ -15797,10 +15889,10 @@
         <v>383</v>
       </c>
       <c r="T378" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U378" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="379" spans="1:21" ht="14.25" customHeight="1">
@@ -15820,10 +15912,10 @@
         <v>383</v>
       </c>
       <c r="T379" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U379" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="380" spans="1:21" ht="14.25" customHeight="1">
@@ -15843,10 +15935,10 @@
         <v>383</v>
       </c>
       <c r="T380" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U380" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="381" spans="1:21" ht="14.25" customHeight="1">
@@ -15866,10 +15958,10 @@
         <v>383</v>
       </c>
       <c r="T381" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U381" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="382" spans="1:21" ht="14.25" customHeight="1">
@@ -15889,10 +15981,10 @@
         <v>383</v>
       </c>
       <c r="T382" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U382" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="383" spans="1:21" ht="14.25" customHeight="1">
@@ -15912,10 +16004,10 @@
         <v>383</v>
       </c>
       <c r="T383" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U383" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" spans="1:21" ht="14.25" customHeight="1">
@@ -15935,10 +16027,10 @@
         <v>383</v>
       </c>
       <c r="T384" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U384" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="385" spans="1:21" ht="14.25" customHeight="1">
@@ -15958,10 +16050,10 @@
         <v>383</v>
       </c>
       <c r="T385" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U385" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="386" spans="1:21" ht="14.25" customHeight="1">
@@ -15981,10 +16073,10 @@
         <v>383</v>
       </c>
       <c r="T386" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U386" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="387" spans="1:21" ht="14.25" customHeight="1">
@@ -16004,10 +16096,10 @@
         <v>383</v>
       </c>
       <c r="T387" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U387" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="388" spans="1:21" ht="14.25" customHeight="1">
@@ -16027,10 +16119,10 @@
         <v>383</v>
       </c>
       <c r="T388" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U388" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="389" spans="1:21" ht="14.25" customHeight="1">
@@ -16050,10 +16142,10 @@
         <v>383</v>
       </c>
       <c r="T389" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U389" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="1:21" ht="14.25" customHeight="1">
@@ -16073,10 +16165,10 @@
         <v>383</v>
       </c>
       <c r="T390" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U390" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="391" spans="1:21" ht="14.25" customHeight="1">
@@ -16096,10 +16188,10 @@
         <v>383</v>
       </c>
       <c r="T391" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U391" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="392" spans="1:21" ht="14.25" customHeight="1">
@@ -16119,10 +16211,10 @@
         <v>383</v>
       </c>
       <c r="T392" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U392" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:21" ht="14.25" customHeight="1">
@@ -16142,10 +16234,10 @@
         <v>383</v>
       </c>
       <c r="T393" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U393" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:21" ht="14.25" customHeight="1">
@@ -16165,10 +16257,10 @@
         <v>383</v>
       </c>
       <c r="T394" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U394" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="395" spans="1:21" ht="14.25" customHeight="1">
@@ -16188,10 +16280,10 @@
         <v>383</v>
       </c>
       <c r="T395" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U395" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="396" spans="1:21" ht="14.25" customHeight="1">
@@ -16211,10 +16303,10 @@
         <v>383</v>
       </c>
       <c r="T396" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U396" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="397" spans="1:21" ht="14.25" customHeight="1">
@@ -16234,10 +16326,10 @@
         <v>383</v>
       </c>
       <c r="T397" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U397" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" spans="1:21" ht="14.25" customHeight="1">
@@ -16257,10 +16349,10 @@
         <v>383</v>
       </c>
       <c r="T398" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U398" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="399" spans="1:21" ht="14.25" customHeight="1">
@@ -16280,10 +16372,10 @@
         <v>383</v>
       </c>
       <c r="T399" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U399" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="400" spans="1:21" ht="14.25" customHeight="1">
@@ -16303,10 +16395,10 @@
         <v>383</v>
       </c>
       <c r="T400" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U400" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="401" spans="1:21" ht="14.25" customHeight="1">
@@ -16326,10 +16418,10 @@
         <v>383</v>
       </c>
       <c r="T401" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U401" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="402" spans="1:21" ht="14.25" customHeight="1">
@@ -16349,10 +16441,10 @@
         <v>383</v>
       </c>
       <c r="T402" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U402" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:21" ht="14.25" customHeight="1">
@@ -16372,10 +16464,10 @@
         <v>383</v>
       </c>
       <c r="T403" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U403" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="404" spans="1:21" ht="14.25" customHeight="1">
@@ -16395,10 +16487,10 @@
         <v>383</v>
       </c>
       <c r="T404" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U404" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:21" ht="14.25" customHeight="1">
@@ -16418,10 +16510,10 @@
         <v>383</v>
       </c>
       <c r="T405" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U405" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="406" spans="1:21" ht="14.25" customHeight="1">
@@ -16441,10 +16533,10 @@
         <v>383</v>
       </c>
       <c r="T406" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U406" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="407" spans="1:21" ht="14.25" customHeight="1">
@@ -16464,10 +16556,10 @@
         <v>383</v>
       </c>
       <c r="T407" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U407" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="408" spans="1:21" ht="14.25" customHeight="1">
@@ -16487,10 +16579,10 @@
         <v>383</v>
       </c>
       <c r="T408" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U408" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="409" spans="1:21" ht="14.25" customHeight="1">
@@ -16510,10 +16602,10 @@
         <v>383</v>
       </c>
       <c r="T409" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U409" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="410" spans="1:21" ht="14.25" customHeight="1">
@@ -16533,10 +16625,10 @@
         <v>383</v>
       </c>
       <c r="T410" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U410" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="411" spans="1:21" ht="14.25" customHeight="1">
@@ -16556,10 +16648,10 @@
         <v>383</v>
       </c>
       <c r="T411" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U411" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="412" spans="1:21" ht="14.25" customHeight="1">
@@ -16579,10 +16671,10 @@
         <v>383</v>
       </c>
       <c r="T412" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U412" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="413" spans="1:21" ht="14.25" customHeight="1">
@@ -16602,10 +16694,10 @@
         <v>383</v>
       </c>
       <c r="T413" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U413" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="414" spans="1:21" ht="14.25" customHeight="1">
@@ -16625,10 +16717,10 @@
         <v>383</v>
       </c>
       <c r="T414" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U414" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="1:21" ht="14.25" customHeight="1">
@@ -16648,10 +16740,10 @@
         <v>383</v>
       </c>
       <c r="T415" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U415" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="416" spans="1:21" ht="14.25" customHeight="1">
@@ -16671,10 +16763,10 @@
         <v>383</v>
       </c>
       <c r="T416" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U416" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="417" spans="1:21" ht="14.25" customHeight="1">
@@ -16694,10 +16786,10 @@
         <v>383</v>
       </c>
       <c r="T417" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U417" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="418" spans="1:21" ht="14.25" customHeight="1">
@@ -16717,10 +16809,10 @@
         <v>383</v>
       </c>
       <c r="T418" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U418" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="419" spans="1:21" ht="14.25" customHeight="1">
@@ -16740,10 +16832,10 @@
         <v>383</v>
       </c>
       <c r="T419" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U419" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="420" spans="1:21" ht="14.25" customHeight="1">
@@ -16763,10 +16855,10 @@
         <v>383</v>
       </c>
       <c r="T420" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U420" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="421" spans="1:21" ht="14.25" customHeight="1">
@@ -16786,10 +16878,10 @@
         <v>383</v>
       </c>
       <c r="T421" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U421" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="422" spans="1:21" ht="14.25" customHeight="1">
@@ -16809,10 +16901,10 @@
         <v>383</v>
       </c>
       <c r="T422" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U422" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="423" spans="1:21" ht="14.25" customHeight="1">
@@ -16832,10 +16924,10 @@
         <v>383</v>
       </c>
       <c r="T423" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U423" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="424" spans="1:21" ht="14.25" customHeight="1">
@@ -16855,10 +16947,10 @@
         <v>383</v>
       </c>
       <c r="T424" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U424" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="425" spans="1:21" ht="14.25" customHeight="1">
@@ -16878,10 +16970,10 @@
         <v>383</v>
       </c>
       <c r="T425" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U425" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="426" spans="1:21" ht="14.25" customHeight="1">
@@ -16901,10 +16993,10 @@
         <v>383</v>
       </c>
       <c r="T426" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U426" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="427" spans="1:21" ht="14.25" customHeight="1">
@@ -16924,10 +17016,10 @@
         <v>383</v>
       </c>
       <c r="T427" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U427" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="428" spans="1:21" ht="14.25" customHeight="1">
@@ -16947,10 +17039,10 @@
         <v>383</v>
       </c>
       <c r="T428" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U428" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="429" spans="1:21" ht="14.25" customHeight="1">
@@ -16970,10 +17062,10 @@
         <v>383</v>
       </c>
       <c r="T429" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U429" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="430" spans="1:21" ht="14.25" customHeight="1">
@@ -16993,10 +17085,10 @@
         <v>383</v>
       </c>
       <c r="T430" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U430" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="431" spans="1:21" ht="14.25" customHeight="1">
@@ -17016,10 +17108,10 @@
         <v>383</v>
       </c>
       <c r="T431" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U431" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="432" spans="1:21" ht="14.25" customHeight="1">
@@ -17039,10 +17131,10 @@
         <v>383</v>
       </c>
       <c r="T432" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U432" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="433" spans="1:21" ht="14.25" customHeight="1">
@@ -17062,10 +17154,10 @@
         <v>383</v>
       </c>
       <c r="T433" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U433" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="434" spans="1:21" ht="14.25" customHeight="1">
@@ -17085,10 +17177,10 @@
         <v>383</v>
       </c>
       <c r="T434" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U434" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="435" spans="1:21" ht="14.25" customHeight="1">
@@ -17108,10 +17200,10 @@
         <v>383</v>
       </c>
       <c r="T435" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U435" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="436" spans="1:21" ht="14.25" customHeight="1">
@@ -17131,10 +17223,10 @@
         <v>383</v>
       </c>
       <c r="T436" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U436" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="437" spans="1:21" ht="14.25" customHeight="1">
@@ -17154,10 +17246,10 @@
         <v>383</v>
       </c>
       <c r="T437" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U437" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="438" spans="1:21" ht="14.25" customHeight="1">
@@ -17177,10 +17269,10 @@
         <v>383</v>
       </c>
       <c r="T438" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U438" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="439" spans="1:21" ht="14.25" customHeight="1">
@@ -17200,10 +17292,10 @@
         <v>383</v>
       </c>
       <c r="T439" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U439" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="440" spans="1:21" ht="14.25" customHeight="1">
@@ -17223,10 +17315,10 @@
         <v>383</v>
       </c>
       <c r="T440" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U440" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="441" spans="1:21" ht="14.25" customHeight="1">
@@ -17246,10 +17338,10 @@
         <v>383</v>
       </c>
       <c r="T441" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U441" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="442" spans="1:21" ht="14.25" customHeight="1">
@@ -17269,10 +17361,10 @@
         <v>383</v>
       </c>
       <c r="T442" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U442" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="443" spans="1:21" ht="14.25" customHeight="1">
@@ -17292,10 +17384,10 @@
         <v>383</v>
       </c>
       <c r="T443" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U443" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="444" spans="1:21" ht="14.25" customHeight="1">
@@ -17315,10 +17407,10 @@
         <v>383</v>
       </c>
       <c r="T444" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U444" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:21" ht="14.25" customHeight="1">
@@ -17338,10 +17430,10 @@
         <v>383</v>
       </c>
       <c r="T445" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U445" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" spans="1:21" ht="14.25" customHeight="1">
@@ -17361,10 +17453,10 @@
         <v>383</v>
       </c>
       <c r="T446" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U446" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="447" spans="1:21" ht="14.25" customHeight="1">
@@ -17384,10 +17476,10 @@
         <v>383</v>
       </c>
       <c r="T447" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U447" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:21" ht="14.25" customHeight="1">
@@ -17407,10 +17499,10 @@
         <v>383</v>
       </c>
       <c r="T448" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U448" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="449" spans="1:21" ht="14.25" customHeight="1">
@@ -17430,10 +17522,10 @@
         <v>383</v>
       </c>
       <c r="T449" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U449" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="450" spans="1:21" ht="14.25" customHeight="1">
@@ -17453,10 +17545,10 @@
         <v>383</v>
       </c>
       <c r="T450" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U450" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="451" spans="1:21" ht="14.25" customHeight="1">
@@ -17476,10 +17568,10 @@
         <v>383</v>
       </c>
       <c r="T451" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U451" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="452" spans="1:21" ht="14.25" customHeight="1">
@@ -17499,10 +17591,10 @@
         <v>383</v>
       </c>
       <c r="T452" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U452" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="453" spans="1:21" ht="14.25" customHeight="1">
@@ -17522,10 +17614,10 @@
         <v>383</v>
       </c>
       <c r="T453" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U453" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="454" spans="1:21" ht="14.25" customHeight="1">
@@ -17545,10 +17637,10 @@
         <v>383</v>
       </c>
       <c r="T454" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U454" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="455" spans="1:21" ht="14.25" customHeight="1">
@@ -17568,10 +17660,10 @@
         <v>383</v>
       </c>
       <c r="T455" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U455" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="456" spans="1:21" ht="14.25" customHeight="1">
@@ -17591,10 +17683,10 @@
         <v>383</v>
       </c>
       <c r="T456" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U456" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="457" spans="1:21" ht="14.25" customHeight="1">
@@ -17614,10 +17706,10 @@
         <v>383</v>
       </c>
       <c r="T457" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U457" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="458" spans="1:21" ht="14.25" customHeight="1">
@@ -17637,10 +17729,10 @@
         <v>383</v>
       </c>
       <c r="T458" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U458" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="459" spans="1:21" ht="14.25" customHeight="1">
@@ -17660,10 +17752,10 @@
         <v>383</v>
       </c>
       <c r="T459" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U459" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="460" spans="1:21" ht="14.25" customHeight="1">
@@ -17683,10 +17775,10 @@
         <v>383</v>
       </c>
       <c r="T460" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U460" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="461" spans="1:21" ht="14.25" customHeight="1">
@@ -17706,10 +17798,10 @@
         <v>383</v>
       </c>
       <c r="T461" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U461" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="462" spans="1:21" ht="14.25" customHeight="1">
@@ -17729,10 +17821,10 @@
         <v>383</v>
       </c>
       <c r="T462" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U462" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="463" spans="1:21" ht="14.25" customHeight="1">
@@ -17752,10 +17844,10 @@
         <v>383</v>
       </c>
       <c r="T463" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U463" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="464" spans="1:21" ht="14.25" customHeight="1">
@@ -17775,10 +17867,10 @@
         <v>383</v>
       </c>
       <c r="T464" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U464" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="465" spans="1:21" ht="14.25" customHeight="1">
@@ -17798,10 +17890,10 @@
         <v>383</v>
       </c>
       <c r="T465" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U465" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="466" spans="1:21" ht="14.25" customHeight="1">
@@ -17821,10 +17913,10 @@
         <v>383</v>
       </c>
       <c r="T466" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U466" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="467" spans="1:21" ht="14.25" customHeight="1">
@@ -17844,10 +17936,10 @@
         <v>383</v>
       </c>
       <c r="T467" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U467" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="468" spans="1:21" ht="14.25" customHeight="1">
@@ -17867,10 +17959,10 @@
         <v>383</v>
       </c>
       <c r="T468" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U468" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="469" spans="1:21" ht="14.25" customHeight="1">
@@ -17890,10 +17982,10 @@
         <v>383</v>
       </c>
       <c r="T469" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U469" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="470" spans="1:21" ht="14.25" customHeight="1">
@@ -17913,10 +18005,10 @@
         <v>383</v>
       </c>
       <c r="T470" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U470" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="471" spans="1:21" ht="14.25" customHeight="1">
@@ -17936,10 +18028,10 @@
         <v>383</v>
       </c>
       <c r="T471" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U471" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="472" spans="1:21" ht="14.25" customHeight="1">
@@ -17959,10 +18051,10 @@
         <v>383</v>
       </c>
       <c r="T472" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U472" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="473" spans="1:21" ht="14.25" customHeight="1">
@@ -17982,10 +18074,10 @@
         <v>383</v>
       </c>
       <c r="T473" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U473" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="474" spans="1:21" ht="14.25" customHeight="1">
@@ -18005,10 +18097,10 @@
         <v>383</v>
       </c>
       <c r="T474" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U474" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="475" spans="1:21" ht="14.25" customHeight="1">
@@ -18028,10 +18120,10 @@
         <v>383</v>
       </c>
       <c r="T475" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U475" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="476" spans="1:21" ht="14.25" customHeight="1">
@@ -18051,10 +18143,10 @@
         <v>383</v>
       </c>
       <c r="T476" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U476" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="477" spans="1:21" ht="14.25" customHeight="1">
@@ -18074,10 +18166,10 @@
         <v>383</v>
       </c>
       <c r="T477" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U477" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="478" spans="1:21" ht="14.25" customHeight="1">
@@ -18097,10 +18189,10 @@
         <v>383</v>
       </c>
       <c r="T478" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U478" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="479" spans="1:21" ht="14.25" customHeight="1">
@@ -18120,10 +18212,10 @@
         <v>383</v>
       </c>
       <c r="T479" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U479" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="480" spans="1:21" ht="14.25" customHeight="1">
@@ -18143,10 +18235,10 @@
         <v>383</v>
       </c>
       <c r="T480" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U480" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="481" spans="1:21" ht="14.25" customHeight="1">
@@ -18166,10 +18258,10 @@
         <v>383</v>
       </c>
       <c r="T481" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U481" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="482" spans="1:21" ht="14.25" customHeight="1">
@@ -18189,10 +18281,10 @@
         <v>383</v>
       </c>
       <c r="T482" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U482" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="483" spans="1:21" ht="14.25" customHeight="1">
@@ -18212,10 +18304,10 @@
         <v>383</v>
       </c>
       <c r="T483" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U483" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="484" spans="1:21" ht="14.25" customHeight="1">
@@ -18235,10 +18327,10 @@
         <v>383</v>
       </c>
       <c r="T484" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U484" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="485" spans="1:21" ht="14.25" customHeight="1">
@@ -18258,10 +18350,10 @@
         <v>383</v>
       </c>
       <c r="T485" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U485" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="486" spans="1:21" ht="14.25" customHeight="1">
@@ -18281,10 +18373,10 @@
         <v>383</v>
       </c>
       <c r="T486" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U486" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="487" spans="1:21" ht="14.25" customHeight="1">
@@ -18304,10 +18396,10 @@
         <v>383</v>
       </c>
       <c r="T487" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U487" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="488" spans="1:21" ht="14.25" customHeight="1">
@@ -18327,10 +18419,10 @@
         <v>383</v>
       </c>
       <c r="T488" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U488" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="489" spans="1:21" ht="14.25" customHeight="1">
@@ -18350,10 +18442,10 @@
         <v>383</v>
       </c>
       <c r="T489" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U489" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="490" spans="1:21" ht="14.25" customHeight="1">
@@ -18373,10 +18465,10 @@
         <v>383</v>
       </c>
       <c r="T490" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U490" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="491" spans="1:21" ht="14.25" customHeight="1">
@@ -18396,10 +18488,10 @@
         <v>383</v>
       </c>
       <c r="T491" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U491" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="492" spans="1:21" ht="14.25" customHeight="1">
@@ -18419,10 +18511,10 @@
         <v>383</v>
       </c>
       <c r="T492" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U492" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="493" spans="1:21" ht="14.25" customHeight="1">
@@ -18442,10 +18534,10 @@
         <v>383</v>
       </c>
       <c r="T493" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U493" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="494" spans="1:21" ht="14.25" customHeight="1">
@@ -18465,10 +18557,10 @@
         <v>383</v>
       </c>
       <c r="T494" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U494" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="495" spans="1:21" ht="14.25" customHeight="1">
@@ -18488,10 +18580,10 @@
         <v>383</v>
       </c>
       <c r="T495" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U495" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="496" spans="1:21" ht="14.25" customHeight="1">
@@ -18511,10 +18603,10 @@
         <v>383</v>
       </c>
       <c r="T496" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U496" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="497" spans="1:21" ht="14.25" customHeight="1">
@@ -18534,10 +18626,10 @@
         <v>383</v>
       </c>
       <c r="T497" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U497" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="498" spans="1:21" ht="14.25" customHeight="1">
@@ -18557,10 +18649,10 @@
         <v>383</v>
       </c>
       <c r="T498" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U498" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="499" spans="1:21" ht="14.25" customHeight="1">
@@ -18580,10 +18672,10 @@
         <v>383</v>
       </c>
       <c r="T499" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U499" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="500" spans="1:21" ht="14.25" customHeight="1">
@@ -18603,10 +18695,10 @@
         <v>383</v>
       </c>
       <c r="T500" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U500" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="501" spans="1:21" ht="14.25" customHeight="1">
@@ -18626,10 +18718,10 @@
         <v>383</v>
       </c>
       <c r="T501" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U501" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="502" spans="1:21" ht="14.25" customHeight="1">
@@ -18649,10 +18741,10 @@
         <v>383</v>
       </c>
       <c r="T502" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U502" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="503" spans="1:21" ht="14.25" customHeight="1">
@@ -18672,10 +18764,10 @@
         <v>383</v>
       </c>
       <c r="T503" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U503" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="504" spans="1:21" ht="14.25" customHeight="1">
@@ -18695,10 +18787,10 @@
         <v>383</v>
       </c>
       <c r="T504" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U504" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="505" spans="1:21" ht="14.25" customHeight="1">
@@ -18718,10 +18810,10 @@
         <v>383</v>
       </c>
       <c r="T505" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U505" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="506" spans="1:21" ht="14.25" customHeight="1">
@@ -18741,10 +18833,10 @@
         <v>383</v>
       </c>
       <c r="T506" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U506" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="507" spans="1:21" ht="14.25" customHeight="1">
@@ -18764,10 +18856,10 @@
         <v>383</v>
       </c>
       <c r="T507" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U507" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="508" spans="1:21" ht="14.25" customHeight="1">
@@ -18787,10 +18879,10 @@
         <v>383</v>
       </c>
       <c r="T508" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U508" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="509" spans="1:21" ht="14.25" customHeight="1">
@@ -18810,10 +18902,10 @@
         <v>383</v>
       </c>
       <c r="T509" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U509" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="510" spans="1:21" ht="14.25" customHeight="1">
@@ -18833,10 +18925,10 @@
         <v>383</v>
       </c>
       <c r="T510" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U510" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="511" spans="1:21" ht="14.25" customHeight="1">
@@ -18856,10 +18948,10 @@
         <v>383</v>
       </c>
       <c r="T511" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U511" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="512" spans="1:21" ht="14.25" customHeight="1">
@@ -18879,10 +18971,10 @@
         <v>383</v>
       </c>
       <c r="T512" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U512" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="513" spans="1:21" ht="14.25" customHeight="1">
@@ -18902,10 +18994,10 @@
         <v>383</v>
       </c>
       <c r="T513" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U513" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="514" spans="1:21" ht="14.25" customHeight="1">
@@ -18925,10 +19017,10 @@
         <v>383</v>
       </c>
       <c r="T514" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U514" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="515" spans="1:21" ht="14.25" customHeight="1">
@@ -18948,10 +19040,10 @@
         <v>383</v>
       </c>
       <c r="T515" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U515" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="516" spans="1:21" ht="14.25" customHeight="1">
@@ -18971,10 +19063,10 @@
         <v>383</v>
       </c>
       <c r="T516" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U516" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="517" spans="1:21" ht="14.25" customHeight="1">
@@ -18994,10 +19086,10 @@
         <v>383</v>
       </c>
       <c r="T517" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U517" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="518" spans="1:21" ht="14.25" customHeight="1">
@@ -19017,10 +19109,10 @@
         <v>383</v>
       </c>
       <c r="T518" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U518" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="519" spans="1:21" ht="14.25" customHeight="1">
@@ -19040,10 +19132,10 @@
         <v>383</v>
       </c>
       <c r="T519" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U519" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="520" spans="1:21" ht="14.25" customHeight="1">
@@ -19063,10 +19155,10 @@
         <v>383</v>
       </c>
       <c r="T520" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U520" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="521" spans="1:21" ht="14.25" customHeight="1">
@@ -19086,10 +19178,10 @@
         <v>383</v>
       </c>
       <c r="T521" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U521" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="522" spans="1:21" ht="14.25" customHeight="1">
@@ -19109,10 +19201,10 @@
         <v>383</v>
       </c>
       <c r="T522" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U522" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="523" spans="1:21" ht="14.25" customHeight="1">
@@ -19132,10 +19224,10 @@
         <v>383</v>
       </c>
       <c r="T523" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U523" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="524" spans="1:21" ht="14.25" customHeight="1">
@@ -19155,10 +19247,10 @@
         <v>383</v>
       </c>
       <c r="T524" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U524" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="525" spans="1:21" ht="14.25" customHeight="1">
@@ -19178,10 +19270,10 @@
         <v>383</v>
       </c>
       <c r="T525" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U525" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="526" spans="1:21" ht="14.25" customHeight="1">
@@ -19201,10 +19293,10 @@
         <v>383</v>
       </c>
       <c r="T526" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U526" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="527" spans="1:21" ht="14.25" customHeight="1">
@@ -19224,10 +19316,10 @@
         <v>383</v>
       </c>
       <c r="T527" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U527" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="528" spans="1:21" ht="14.25" customHeight="1">
@@ -19247,10 +19339,10 @@
         <v>383</v>
       </c>
       <c r="T528" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U528" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="529" spans="1:21" ht="14.25" customHeight="1">
@@ -19270,10 +19362,10 @@
         <v>383</v>
       </c>
       <c r="T529" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U529" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="530" spans="1:21" ht="14.25" customHeight="1">
@@ -19293,10 +19385,10 @@
         <v>383</v>
       </c>
       <c r="T530" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U530" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="531" spans="1:21" ht="14.25" customHeight="1">
@@ -19316,10 +19408,10 @@
         <v>383</v>
       </c>
       <c r="T531" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U531" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="532" spans="1:21" ht="14.25" customHeight="1">
@@ -19339,10 +19431,10 @@
         <v>383</v>
       </c>
       <c r="T532" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U532" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="533" spans="1:21" ht="14.25" customHeight="1">
@@ -19362,10 +19454,10 @@
         <v>383</v>
       </c>
       <c r="T533" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U533" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="534" spans="1:21" ht="14.25" customHeight="1">
@@ -19385,10 +19477,10 @@
         <v>383</v>
       </c>
       <c r="T534" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U534" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="535" spans="1:21" ht="14.25" customHeight="1">
@@ -19408,10 +19500,10 @@
         <v>383</v>
       </c>
       <c r="T535" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U535" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="536" spans="1:21" ht="14.25" customHeight="1">
@@ -19431,10 +19523,10 @@
         <v>383</v>
       </c>
       <c r="T536" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U536" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="537" spans="1:21" ht="14.25" customHeight="1">
@@ -19454,10 +19546,10 @@
         <v>383</v>
       </c>
       <c r="T537" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U537" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="538" spans="1:21" ht="14.25" customHeight="1">
@@ -19477,10 +19569,10 @@
         <v>383</v>
       </c>
       <c r="T538" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U538" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="539" spans="1:21" ht="14.25" customHeight="1">
@@ -19500,10 +19592,10 @@
         <v>383</v>
       </c>
       <c r="T539" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U539" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="540" spans="1:21" ht="14.25" customHeight="1">
@@ -19523,10 +19615,10 @@
         <v>383</v>
       </c>
       <c r="T540" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U540" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="541" spans="1:21" ht="14.25" customHeight="1">
@@ -19546,10 +19638,10 @@
         <v>383</v>
       </c>
       <c r="T541" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U541" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="542" spans="1:21" ht="14.25" customHeight="1">
@@ -19569,10 +19661,10 @@
         <v>383</v>
       </c>
       <c r="T542" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U542" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="543" spans="1:21" ht="14.25" customHeight="1">
@@ -19592,10 +19684,10 @@
         <v>383</v>
       </c>
       <c r="T543" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U543" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="544" spans="1:21" ht="14.25" customHeight="1">
@@ -19615,10 +19707,10 @@
         <v>383</v>
       </c>
       <c r="T544" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U544" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="545" spans="1:21" ht="14.25" customHeight="1">
@@ -19638,10 +19730,10 @@
         <v>383</v>
       </c>
       <c r="T545" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U545" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="546" spans="1:21" ht="14.25" customHeight="1">
@@ -19661,10 +19753,10 @@
         <v>383</v>
       </c>
       <c r="T546" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U546" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="547" spans="1:21" ht="14.25" customHeight="1">
@@ -19684,10 +19776,10 @@
         <v>383</v>
       </c>
       <c r="T547" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U547" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="548" spans="1:21" ht="14.25" customHeight="1">
@@ -19707,10 +19799,10 @@
         <v>383</v>
       </c>
       <c r="T548" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U548" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="549" spans="1:21" ht="14.25" customHeight="1">
@@ -19730,10 +19822,10 @@
         <v>383</v>
       </c>
       <c r="T549" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U549" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="550" spans="1:21" ht="14.25" customHeight="1">
@@ -19753,10 +19845,10 @@
         <v>383</v>
       </c>
       <c r="T550" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U550" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="551" spans="1:21" ht="14.25" customHeight="1">
@@ -19776,10 +19868,10 @@
         <v>383</v>
       </c>
       <c r="T551" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U551" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="552" spans="1:21" ht="14.25" customHeight="1">
@@ -19799,10 +19891,10 @@
         <v>383</v>
       </c>
       <c r="T552" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U552" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="553" spans="1:21" ht="14.25" customHeight="1">
@@ -19822,10 +19914,10 @@
         <v>383</v>
       </c>
       <c r="T553" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U553" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="554" spans="1:21" ht="14.25" customHeight="1">
@@ -19845,10 +19937,10 @@
         <v>383</v>
       </c>
       <c r="T554" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U554" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="555" spans="1:21" ht="14.25" customHeight="1">
@@ -19868,10 +19960,10 @@
         <v>383</v>
       </c>
       <c r="T555" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U555" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="556" spans="1:21" ht="14.25" customHeight="1">
@@ -19891,10 +19983,10 @@
         <v>383</v>
       </c>
       <c r="T556" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U556" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="557" spans="1:21" ht="14.25" customHeight="1">
@@ -19914,10 +20006,10 @@
         <v>383</v>
       </c>
       <c r="T557" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U557" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="558" spans="1:21" ht="14.25" customHeight="1">
@@ -19937,10 +20029,10 @@
         <v>383</v>
       </c>
       <c r="T558" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U558" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="559" spans="1:21" ht="14.25" customHeight="1">
@@ -19960,10 +20052,10 @@
         <v>383</v>
       </c>
       <c r="T559" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U559" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="560" spans="1:21" ht="14.25" customHeight="1">
@@ -19983,10 +20075,10 @@
         <v>383</v>
       </c>
       <c r="T560" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U560" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="561" spans="1:21" ht="14.25" customHeight="1">
@@ -20006,10 +20098,10 @@
         <v>383</v>
       </c>
       <c r="T561" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U561" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="562" spans="1:21" ht="14.25" customHeight="1">
@@ -20029,10 +20121,10 @@
         <v>383</v>
       </c>
       <c r="T562" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U562" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="563" spans="1:21" ht="14.25" customHeight="1">
@@ -20052,10 +20144,10 @@
         <v>383</v>
       </c>
       <c r="T563" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U563" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="564" spans="1:21" ht="14.25" customHeight="1">
@@ -20075,10 +20167,10 @@
         <v>383</v>
       </c>
       <c r="T564" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U564" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="565" spans="1:21" ht="14.25" customHeight="1">
@@ -20098,10 +20190,10 @@
         <v>383</v>
       </c>
       <c r="T565" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U565" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="566" spans="1:21" ht="14.25" customHeight="1">
@@ -20121,10 +20213,10 @@
         <v>383</v>
       </c>
       <c r="T566" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U566" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="567" spans="1:21" ht="14.25" customHeight="1">
@@ -20144,10 +20236,10 @@
         <v>383</v>
       </c>
       <c r="T567" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U567" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="568" spans="1:21" ht="14.25" customHeight="1">
@@ -20167,10 +20259,10 @@
         <v>383</v>
       </c>
       <c r="T568" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U568" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="569" spans="1:21" ht="14.25" customHeight="1">
@@ -20190,10 +20282,10 @@
         <v>383</v>
       </c>
       <c r="T569" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U569" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="570" spans="1:21" ht="14.25" customHeight="1">
@@ -20213,10 +20305,10 @@
         <v>383</v>
       </c>
       <c r="T570" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U570" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="571" spans="1:21" ht="14.25" customHeight="1">
@@ -20236,10 +20328,10 @@
         <v>383</v>
       </c>
       <c r="T571" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U571" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="572" spans="1:21" ht="14.25" customHeight="1">
@@ -20259,10 +20351,10 @@
         <v>383</v>
       </c>
       <c r="T572" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U572" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="573" spans="1:21" ht="14.25" customHeight="1">
@@ -20282,10 +20374,10 @@
         <v>383</v>
       </c>
       <c r="T573" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U573" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="574" spans="1:21" ht="14.25" customHeight="1">
@@ -20305,10 +20397,10 @@
         <v>383</v>
       </c>
       <c r="T574" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U574" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="575" spans="1:21" ht="14.25" customHeight="1">
@@ -20328,10 +20420,10 @@
         <v>383</v>
       </c>
       <c r="T575" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U575" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="576" spans="1:21" ht="14.25" customHeight="1">
@@ -20351,10 +20443,10 @@
         <v>432</v>
       </c>
       <c r="T576" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U576" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="577" spans="1:21" ht="14.25" customHeight="1">
@@ -20374,10 +20466,10 @@
         <v>432</v>
       </c>
       <c r="T577" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U577" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="578" spans="1:21" ht="14.25" customHeight="1">
@@ -20397,10 +20489,10 @@
         <v>432</v>
       </c>
       <c r="T578" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U578" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="579" spans="1:21" ht="14.25" customHeight="1">
@@ -20420,10 +20512,10 @@
         <v>432</v>
       </c>
       <c r="T579" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U579" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="580" spans="1:21" ht="14.25" customHeight="1">
@@ -20443,10 +20535,10 @@
         <v>432</v>
       </c>
       <c r="T580" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U580" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="581" spans="1:21" ht="14.25" customHeight="1">
@@ -20466,10 +20558,10 @@
         <v>432</v>
       </c>
       <c r="T581" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U581" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="582" spans="1:21" ht="14.25" customHeight="1">
@@ -20489,10 +20581,10 @@
         <v>432</v>
       </c>
       <c r="T582" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U582" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="583" spans="1:21" ht="14.25" customHeight="1">
@@ -20512,10 +20604,10 @@
         <v>432</v>
       </c>
       <c r="T583" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U583" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="584" spans="1:21" ht="14.25" customHeight="1">
@@ -20535,10 +20627,10 @@
         <v>432</v>
       </c>
       <c r="T584" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U584" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="585" spans="1:21" ht="14.25" customHeight="1">
@@ -20558,10 +20650,10 @@
         <v>432</v>
       </c>
       <c r="T585" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U585" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="586" spans="1:21" ht="14.25" customHeight="1">
@@ -20581,10 +20673,10 @@
         <v>432</v>
       </c>
       <c r="T586" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U586" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="587" spans="1:21" ht="14.25" customHeight="1">
@@ -20604,10 +20696,10 @@
         <v>432</v>
       </c>
       <c r="T587" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U587" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="588" spans="1:21" ht="14.25" customHeight="1">
@@ -20627,10 +20719,10 @@
         <v>432</v>
       </c>
       <c r="T588" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U588" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="589" spans="1:21" ht="14.25" customHeight="1">
@@ -20650,10 +20742,10 @@
         <v>432</v>
       </c>
       <c r="T589" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U589" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="590" spans="1:21" ht="14.25" customHeight="1">
@@ -20673,10 +20765,10 @@
         <v>432</v>
       </c>
       <c r="T590" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U590" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="591" spans="1:21" ht="14.25" customHeight="1">
@@ -20696,10 +20788,10 @@
         <v>432</v>
       </c>
       <c r="T591" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U591" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="592" spans="1:21" ht="14.25" customHeight="1">
@@ -20719,10 +20811,10 @@
         <v>432</v>
       </c>
       <c r="T592" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U592" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="593" spans="1:21" ht="14.25" customHeight="1">
@@ -20742,10 +20834,10 @@
         <v>432</v>
       </c>
       <c r="T593" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U593" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="594" spans="1:21" ht="14.25" customHeight="1">
@@ -20765,10 +20857,10 @@
         <v>432</v>
       </c>
       <c r="T594" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U594" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="595" spans="1:21" ht="14.25" customHeight="1">
@@ -20788,10 +20880,10 @@
         <v>432</v>
       </c>
       <c r="T595" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U595" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="596" spans="1:21" ht="14.25" customHeight="1">
@@ -20811,10 +20903,10 @@
         <v>432</v>
       </c>
       <c r="T596" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U596" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="597" spans="1:21" ht="14.25" customHeight="1">
@@ -20834,10 +20926,10 @@
         <v>432</v>
       </c>
       <c r="T597" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U597" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="598" spans="1:21" ht="14.25" customHeight="1">
@@ -20857,10 +20949,10 @@
         <v>432</v>
       </c>
       <c r="T598" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U598" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="599" spans="1:21" ht="14.25" customHeight="1">
@@ -20880,10 +20972,10 @@
         <v>432</v>
       </c>
       <c r="T599" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U599" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="600" spans="1:21" ht="14.25" customHeight="1">
@@ -20903,10 +20995,10 @@
         <v>432</v>
       </c>
       <c r="T600" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U600" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="601" spans="1:21" ht="14.25" customHeight="1">
@@ -20926,10 +21018,10 @@
         <v>432</v>
       </c>
       <c r="T601" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U601" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="602" spans="1:21" ht="14.25" customHeight="1">
@@ -20949,10 +21041,10 @@
         <v>432</v>
       </c>
       <c r="T602" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U602" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="603" spans="1:21" ht="14.25" customHeight="1">
@@ -20972,10 +21064,10 @@
         <v>432</v>
       </c>
       <c r="T603" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U603" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="604" spans="1:21" ht="14.25" customHeight="1">
@@ -20995,10 +21087,10 @@
         <v>433</v>
       </c>
       <c r="T604" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U604" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="605" spans="1:21" ht="14.25" customHeight="1">
@@ -21018,10 +21110,10 @@
         <v>433</v>
       </c>
       <c r="T605" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U605" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="606" spans="1:21" ht="14.25" customHeight="1">
@@ -21041,10 +21133,10 @@
         <v>433</v>
       </c>
       <c r="T606" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U606" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="607" spans="1:21" ht="14.25" customHeight="1">
@@ -21064,10 +21156,10 @@
         <v>433</v>
       </c>
       <c r="T607" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U607" s="10" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="608" spans="1:21" ht="14.25" customHeight="1">

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Seismic-DnA-GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2463A-91E3-4E33-9658-BD2BA65148C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A07719-9E7E-485E-822B-0F1621878999}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6312" tabRatio="569" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2638,7 +2638,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Seismic-DnA-GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A07719-9E7E-485E-822B-0F1621878999}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F0D67A-7356-4268-85B4-D1A75B36963D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6312" tabRatio="569" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2635,10 +2635,10 @@
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
